--- a/codegen/input/xxxxx接口明细v1.0.xlsx
+++ b/codegen/input/xxxxx接口明细v1.0.xlsx
@@ -1206,7 +1206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1281,6 +1281,24 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1706,7 +1724,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1728,6 +1746,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1952,7 +1980,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10" xfId="1"/>
     <cellStyle name="常规 11" xfId="2"/>
@@ -1974,6 +2002,16 @@
     <cellStyle name="常规 6" xfId="18"/>
     <cellStyle name="常规 8" xfId="19"/>
     <cellStyle name="常规 9" xfId="20"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3343,8 +3381,8 @@
   <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>

--- a/codegen/input/xxxxx接口明细v1.0.xlsx
+++ b/codegen/input/xxxxx接口明细v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="通用参数" sheetId="2" r:id="rId1"/>
@@ -722,18 +722,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>保存XXXXXX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getXXXXXX.app</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveXXXXXX.app</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>xxxType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1187,8 +1175,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>getXxxx.app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveYyyy.app</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存YYYYYY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>com.xxxxxxxxxx.yyyy.</t>
+      <t>com.xxx.yyyy.</t>
     </r>
     <r>
       <rPr>
@@ -1961,6 +1961,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,12 +1979,6 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2941,13 +2941,13 @@
       <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="125"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
@@ -2968,20 +2968,20 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="20"/>
@@ -2989,20 +2989,20 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="20"/>
@@ -3088,23 +3088,23 @@
       <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>70</v>
@@ -3123,19 +3123,19 @@
       <c r="B4" s="42"/>
       <c r="C4" s="47"/>
       <c r="D4" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="H4" s="114" t="s">
         <v>179</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="114" t="s">
-        <v>182</v>
       </c>
       <c r="I4" s="115"/>
       <c r="J4" s="115"/>
@@ -3147,10 +3147,10 @@
         <v>73</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>70</v>
@@ -3169,22 +3169,22 @@
       <c r="B6" s="45"/>
       <c r="C6" s="35"/>
       <c r="D6" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I6" s="110" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J6" s="110"/>
       <c r="K6" s="110"/>
@@ -3195,19 +3195,19 @@
       <c r="B7" s="44"/>
       <c r="C7" s="41"/>
       <c r="D7" s="98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="118" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H7" s="118" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I7" s="119"/>
       <c r="J7" s="92"/>
@@ -3219,10 +3219,10 @@
         <v>71</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>70</v>
@@ -3241,19 +3241,19 @@
       <c r="B9" s="36"/>
       <c r="C9" s="35"/>
       <c r="D9" s="46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G9" s="112" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H9" s="112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I9" s="111"/>
       <c r="J9" s="111"/>
@@ -3265,19 +3265,19 @@
       <c r="B10" s="38"/>
       <c r="C10" s="43"/>
       <c r="D10" s="86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G10" s="112" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H10" s="112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
@@ -3289,19 +3289,19 @@
       <c r="B11" s="38"/>
       <c r="C11" s="43"/>
       <c r="D11" s="46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G11" s="112" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H11" s="112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I11" s="113"/>
       <c r="J11" s="108"/>
@@ -3313,19 +3313,19 @@
       <c r="B12" s="42"/>
       <c r="C12" s="41"/>
       <c r="D12" s="98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="121" t="s">
-        <v>208</v>
-      </c>
       <c r="H12" s="121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I12" s="122"/>
       <c r="J12" s="115"/>
@@ -3381,8 +3381,8 @@
   <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3404,36 +3404,36 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="130" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="130" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="127"/>
+      <c r="A2" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="129" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="128" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="132"/>
+      <c r="F3" s="128"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="51" t="s">
@@ -3457,10 +3457,10 @@
         <v>90</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>41</v>
@@ -3492,7 +3492,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>88</v>
@@ -3511,10 +3511,10 @@
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
       <c r="F8" s="53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H8" s="66" t="s">
         <v>32</v>
@@ -3535,10 +3535,10 @@
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H9" s="66" t="s">
         <v>32</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3577,13 +3577,13 @@
       <c r="D11" s="77"/>
       <c r="E11" s="77"/>
       <c r="F11" s="53" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>23</v>
@@ -3605,10 +3605,10 @@
         <v>106</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="F12" s="57" t="s">
         <v>88</v>
@@ -3807,10 +3807,10 @@
         <v>84</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H22" s="48" t="s">
         <v>41</v>
@@ -3833,16 +3833,16 @@
         <v>89</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" s="81" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F23" s="57" t="s">
         <v>83</v>
@@ -3861,10 +3861,10 @@
       <c r="D24" s="68"/>
       <c r="E24" s="63"/>
       <c r="F24" s="53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H24" s="66" t="s">
         <v>32</v>
@@ -3883,10 +3883,10 @@
       <c r="D25" s="68"/>
       <c r="E25" s="63"/>
       <c r="F25" s="53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H25" s="66" t="s">
         <v>107</v>
@@ -3905,10 +3905,10 @@
       <c r="D26" s="68"/>
       <c r="E26" s="63"/>
       <c r="F26" s="53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H26" s="66" t="s">
         <v>32</v>
@@ -3927,10 +3927,10 @@
       <c r="D27" s="68"/>
       <c r="E27" s="63"/>
       <c r="F27" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H27" s="66" t="s">
         <v>32</v>
@@ -3949,10 +3949,10 @@
       <c r="D28" s="68"/>
       <c r="E28" s="63"/>
       <c r="F28" s="53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H28" s="66" t="s">
         <v>32</v>
@@ -3966,19 +3966,19 @@
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="81" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C29" s="81" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E29" s="81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F29" s="57" t="s">
         <v>83</v>
@@ -3997,10 +3997,10 @@
       <c r="D30" s="68"/>
       <c r="E30" s="63"/>
       <c r="F30" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G30" s="53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H30" s="66" t="s">
         <v>32</v>
@@ -4019,10 +4019,10 @@
       <c r="D31" s="68"/>
       <c r="E31" s="63"/>
       <c r="F31" s="53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H31" s="66" t="s">
         <v>107</v>
@@ -4041,10 +4041,10 @@
       <c r="D32" s="68"/>
       <c r="E32" s="63"/>
       <c r="F32" s="53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H32" s="66" t="s">
         <v>32</v>
@@ -4063,10 +4063,10 @@
       <c r="D33" s="68"/>
       <c r="E33" s="63"/>
       <c r="F33" s="53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H33" s="66" t="s">
         <v>32</v>
@@ -4085,10 +4085,10 @@
       <c r="D34" s="73"/>
       <c r="E34" s="73"/>
       <c r="F34" s="53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H34" s="66" t="s">
         <v>32</v>
@@ -4146,13 +4146,13 @@
         <v>95</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I37" s="48" t="s">
         <v>1</v>
@@ -4168,16 +4168,16 @@
         <v>104</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F38" s="57" t="s">
         <v>94</v>
@@ -4196,13 +4196,13 @@
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="53" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G39" s="53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I39" s="53" t="s">
         <v>100</v>
@@ -4218,13 +4218,13 @@
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I40" s="53" t="s">
         <v>100</v>
@@ -4238,16 +4238,16 @@
         <v>103</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F41" s="57" t="s">
         <v>94</v>
@@ -4266,13 +4266,13 @@
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G42" s="53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H42" s="53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I42" s="53" t="s">
         <v>100</v>
@@ -4288,13 +4288,13 @@
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I43" s="53" t="s">
         <v>100</v>
@@ -4310,13 +4310,13 @@
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I44" s="53" t="s">
         <v>100</v>
@@ -4332,13 +4332,13 @@
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
       <c r="F45" s="53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G45" s="53" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H45" s="53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I45" s="53" t="s">
         <v>100</v>
